--- a/REGULAR/GSO/OLINO, PRECIOSA.xlsx
+++ b/REGULAR/GSO/OLINO, PRECIOSA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="378">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1116,6 +1116,57 @@
   </si>
   <si>
     <t>UT(0-4-34)</t>
+  </si>
+  <si>
+    <t>UT(0-3-8)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>9/2,8,21/2022</t>
+  </si>
+  <si>
+    <t>UT(0-3-27)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-50)</t>
+  </si>
+  <si>
+    <t>7/21-29/2022</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-6-56)</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>6/13-15,22,23/2022</t>
+  </si>
+  <si>
+    <t>UT(0-4-19)</t>
+  </si>
+  <si>
+    <t>UT(0-5-17)</t>
+  </si>
+  <si>
+    <t>4/4,5,6,13,18/2022</t>
+  </si>
+  <si>
+    <t>UT(1-2-23)</t>
+  </si>
+  <si>
+    <t>3/1-4/2022</t>
+  </si>
+  <si>
+    <t>UT(0-7-42)</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1901,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K606" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K613" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2179,12 +2230,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K606"/>
+  <dimension ref="A2:K613"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1965" topLeftCell="A532" activePane="bottomLeft"/>
+      <pane ySplit="1965" topLeftCell="A529" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="E546" sqref="E546"/>
+      <selection pane="bottomLeft" activeCell="D543" sqref="D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,7 +2394,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.462999999999909</v>
+        <v>46.958999999999889</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13871,11 +13922,15 @@
       <c r="A537" s="40">
         <v>44621</v>
       </c>
-      <c r="B537" s="20"/>
+      <c r="B537" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="C537" s="13">
         <v>1.25</v>
       </c>
-      <c r="D537" s="39"/>
+      <c r="D537" s="39">
+        <v>4</v>
+      </c>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
       <c r="G537" s="13">
@@ -13885,22 +13940,24 @@
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="20"/>
+      <c r="K537" s="20" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B538" s="20"/>
-      <c r="C538" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D538" s="39"/>
+      <c r="A538" s="40"/>
+      <c r="B538" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39">
+        <v>0.96199999999999997</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
@@ -13909,13 +13966,17 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B539" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B539" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="C539" s="13">
         <v>1.25</v>
       </c>
-      <c r="D539" s="39"/>
+      <c r="D539" s="39">
+        <v>5</v>
+      </c>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
       <c r="G539" s="13">
@@ -13925,22 +13986,24 @@
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="20" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B540" s="20"/>
-      <c r="C540" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D540" s="39"/>
+      <c r="A540" s="40"/>
+      <c r="B540" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C540" s="13"/>
+      <c r="D540" s="39">
+        <v>1.298</v>
+      </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G540" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
@@ -13949,11 +14012,9 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B541" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>44682</v>
+      </c>
+      <c r="B541" s="20"/>
       <c r="C541" s="13">
         <v>1.25</v>
       </c>
@@ -13964,44 +14025,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H541" s="39">
-        <v>2</v>
-      </c>
+      <c r="H541" s="39"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="K541" s="48"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B542" s="20"/>
-      <c r="C542" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D542" s="39"/>
+      <c r="A542" s="40"/>
+      <c r="B542" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39">
+        <v>0.66</v>
+      </c>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H542" s="39"/>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20"/>
+      <c r="K542" s="48"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B543" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B543" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="C543" s="13">
         <v>1.25</v>
       </c>
-      <c r="D543" s="39"/>
+      <c r="D543" s="39">
+        <v>5</v>
+      </c>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
       <c r="G543" s="13">
@@ -14011,22 +14072,24 @@
       <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20"/>
+      <c r="K543" s="20" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A544" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B544" s="20"/>
-      <c r="C544" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D544" s="39"/>
+      <c r="A544" s="40"/>
+      <c r="B544" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C544" s="13"/>
+      <c r="D544" s="39">
+        <v>0.54</v>
+      </c>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
-      <c r="G544" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G544" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H544" s="39"/>
       <c r="I544" s="9"/>
@@ -14035,9 +14098,11 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B545" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B545" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C545" s="13">
         <v>1.25</v>
       </c>
@@ -14048,19 +14113,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H545" s="39"/>
+      <c r="H545" s="39">
+        <v>2</v>
+      </c>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
-      <c r="K545" s="20"/>
+      <c r="K545" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C546" s="13"/>
       <c r="D546" s="39">
-        <v>0.57099999999999995</v>
+        <v>2</v>
       </c>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
@@ -14071,26 +14140,24 @@
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="20"/>
+      <c r="K546" s="20" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C547" s="13">
-        <v>1.25</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C547" s="13"/>
       <c r="D547" s="39">
-        <v>5</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G547" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
@@ -14098,35 +14165,39 @@
       <c r="K547" s="20"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40"/>
+      <c r="A548" s="40">
+        <v>44774</v>
+      </c>
       <c r="B548" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C548" s="13"/>
+        <v>365</v>
+      </c>
+      <c r="C548" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D548" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
-      <c r="G548" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G548" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H548" s="39"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20" t="s">
-        <v>358</v>
+      <c r="K548" s="48">
+        <v>44776</v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39">
-        <v>0.71699999999999997</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
@@ -14137,81 +14208,91 @@
       <c r="H549" s="39"/>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20"/>
+      <c r="K549" s="48"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B550" s="20"/>
-      <c r="C550" s="13"/>
-      <c r="D550" s="39"/>
+      <c r="A550" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B550" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C550" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D550" s="39">
+        <v>3</v>
+      </c>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
-      <c r="G550" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G550" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H550" s="39"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20"/>
+      <c r="K550" s="20" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C551" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D551" s="39"/>
+        <v>364</v>
+      </c>
+      <c r="C551" s="13"/>
+      <c r="D551" s="39">
+        <v>0.43099999999999999</v>
+      </c>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H551" s="39">
-        <v>1</v>
-      </c>
+      <c r="G551" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H551" s="39"/>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="48">
-        <v>44942</v>
-      </c>
+      <c r="K551" s="20"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40"/>
+      <c r="A552" s="40">
+        <v>44835</v>
+      </c>
       <c r="B552" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C552" s="13"/>
-      <c r="D552" s="39"/>
+        <v>361</v>
+      </c>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D552" s="39">
+        <v>0.39200000000000002</v>
+      </c>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G552" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H552" s="39"/>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="48" t="s">
-        <v>71</v>
-      </c>
+      <c r="K552" s="20"/>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B553" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B553" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="C553" s="13">
         <v>1.25</v>
       </c>
-      <c r="D553" s="39"/>
+      <c r="D553" s="39">
+        <v>0.57099999999999995</v>
+      </c>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
       <c r="G553" s="13">
@@ -14225,13 +14306,17 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B554" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B554" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C554" s="13">
         <v>1.25</v>
       </c>
-      <c r="D554" s="39"/>
+      <c r="D554" s="39">
+        <v>5</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
       <c r="G554" s="13">
@@ -14244,32 +14329,36 @@
       <c r="K554" s="20"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B555" s="20"/>
-      <c r="C555" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D555" s="39"/>
+      <c r="A555" s="40"/>
+      <c r="B555" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C555" s="13"/>
+      <c r="D555" s="39">
+        <v>4</v>
+      </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G555" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H555" s="39"/>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
-      <c r="K555" s="20"/>
+      <c r="K555" s="20" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B556" s="20"/>
+      <c r="A556" s="40"/>
+      <c r="B556" s="20" t="s">
+        <v>359</v>
+      </c>
       <c r="C556" s="13"/>
-      <c r="D556" s="39"/>
+      <c r="D556" s="39">
+        <v>0.71699999999999997</v>
+      </c>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
       <c r="G556" s="13" t="str">
@@ -14282,8 +14371,8 @@
       <c r="K556" s="20"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="40">
-        <v>45078</v>
+      <c r="A557" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -14301,27 +14390,35 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B558" s="20"/>
-      <c r="C558" s="13"/>
+        <v>44927</v>
+      </c>
+      <c r="B558" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C558" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D558" s="39"/>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H558" s="39"/>
+      <c r="G558" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H558" s="39">
+        <v>1</v>
+      </c>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="20"/>
+      <c r="K558" s="48">
+        <v>44942</v>
+      </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B559" s="20"/>
+      <c r="A559" s="40"/>
+      <c r="B559" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
       <c r="E559" s="9"/>
@@ -14333,20 +14430,24 @@
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20"/>
+      <c r="K559" s="48" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45170</v>
+        <v>44958</v>
       </c>
       <c r="B560" s="20"/>
-      <c r="C560" s="13"/>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D560" s="39"/>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G560" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
@@ -14355,16 +14456,18 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45200</v>
+        <v>44986</v>
       </c>
       <c r="B561" s="20"/>
-      <c r="C561" s="13"/>
+      <c r="C561" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G561" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
@@ -14373,16 +14476,18 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45231</v>
+        <v>45017</v>
       </c>
       <c r="B562" s="20"/>
-      <c r="C562" s="13"/>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
-      <c r="G562" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G562" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
@@ -14391,7 +14496,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45261</v>
+        <v>45047</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -14409,7 +14514,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45292</v>
+        <v>45078</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -14427,7 +14532,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45323</v>
+        <v>45108</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -14445,7 +14550,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45352</v>
+        <v>45139</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -14463,7 +14568,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45383</v>
+        <v>45170</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -14481,7 +14586,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45413</v>
+        <v>45200</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -14499,7 +14604,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45444</v>
+        <v>45231</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -14517,7 +14622,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45474</v>
+        <v>45261</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -14535,7 +14640,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45505</v>
+        <v>45292</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -14553,7 +14658,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -14571,7 +14676,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14589,7 +14694,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14607,7 +14712,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14625,7 +14730,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45658</v>
+        <v>45444</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14643,7 +14748,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45689</v>
+        <v>45474</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14661,7 +14766,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45717</v>
+        <v>45505</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14679,7 +14784,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45748</v>
+        <v>45536</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14697,7 +14802,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45778</v>
+        <v>45566</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14715,7 +14820,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45809</v>
+        <v>45597</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14733,7 +14838,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45839</v>
+        <v>45627</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14751,7 +14856,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45870</v>
+        <v>45658</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14769,7 +14874,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45901</v>
+        <v>45689</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14787,7 +14892,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45931</v>
+        <v>45717</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14805,7 +14910,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45962</v>
+        <v>45748</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14823,7 +14928,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45992</v>
+        <v>45778</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -14841,7 +14946,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46023</v>
+        <v>45809</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14859,7 +14964,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46054</v>
+        <v>45839</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -14877,7 +14982,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46082</v>
+        <v>45870</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -14895,7 +15000,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46113</v>
+        <v>45901</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14913,7 +15018,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46143</v>
+        <v>45931</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -14931,7 +15036,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46174</v>
+        <v>45962</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -14949,7 +15054,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46204</v>
+        <v>45992</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -14967,7 +15072,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46235</v>
+        <v>46023</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -14985,7 +15090,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46266</v>
+        <v>46054</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15003,7 +15108,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46296</v>
+        <v>46082</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15021,7 +15126,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46327</v>
+        <v>46113</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15039,7 +15144,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46357</v>
+        <v>46143</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15057,7 +15162,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46388</v>
+        <v>46174</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15075,7 +15180,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46419</v>
+        <v>46204</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15093,7 +15198,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46447</v>
+        <v>46235</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15111,7 +15216,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46478</v>
+        <v>46266</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15129,7 +15234,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46508</v>
+        <v>46296</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15147,7 +15252,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46539</v>
+        <v>46327</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15165,21 +15270,147 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B606" s="20"/>
+      <c r="C606" s="13"/>
+      <c r="D606" s="39"/>
+      <c r="E606" s="9"/>
+      <c r="F606" s="20"/>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H606" s="39"/>
+      <c r="I606" s="9"/>
+      <c r="J606" s="11"/>
+      <c r="K606" s="20"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607" s="40">
+        <v>46388</v>
+      </c>
+      <c r="B607" s="20"/>
+      <c r="C607" s="13"/>
+      <c r="D607" s="39"/>
+      <c r="E607" s="9"/>
+      <c r="F607" s="20"/>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H607" s="39"/>
+      <c r="I607" s="9"/>
+      <c r="J607" s="11"/>
+      <c r="K607" s="20"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" s="40">
+        <v>46419</v>
+      </c>
+      <c r="B608" s="20"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="39"/>
+      <c r="E608" s="9"/>
+      <c r="F608" s="20"/>
+      <c r="G608" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H608" s="39"/>
+      <c r="I608" s="9"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="20"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B609" s="20"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39"/>
+      <c r="E609" s="9"/>
+      <c r="F609" s="20"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39"/>
+      <c r="I609" s="9"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="20"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="40">
+        <v>46478</v>
+      </c>
+      <c r="B610" s="20"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="39"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="39"/>
+      <c r="I610" s="9"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="20"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B611" s="20"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="39"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="20"/>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H611" s="39"/>
+      <c r="I611" s="9"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="20"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B612" s="20"/>
+      <c r="C612" s="13"/>
+      <c r="D612" s="39"/>
+      <c r="E612" s="9"/>
+      <c r="F612" s="20"/>
+      <c r="G612" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H612" s="39"/>
+      <c r="I612" s="9"/>
+      <c r="J612" s="11"/>
+      <c r="K612" s="20"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="40">
         <v>46569</v>
       </c>
-      <c r="B606" s="15"/>
-      <c r="C606" s="41"/>
-      <c r="D606" s="42"/>
-      <c r="E606" s="9"/>
-      <c r="F606" s="15"/>
-      <c r="G606" s="41" t="str">
+      <c r="B613" s="15"/>
+      <c r="C613" s="41"/>
+      <c r="D613" s="42"/>
+      <c r="E613" s="9"/>
+      <c r="F613" s="15"/>
+      <c r="G613" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H606" s="42"/>
-      <c r="I606" s="9"/>
-      <c r="J606" s="12"/>
-      <c r="K606" s="15"/>
+      <c r="H613" s="42"/>
+      <c r="I613" s="9"/>
+      <c r="J613" s="12"/>
+      <c r="K613" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15292,14 +15523,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="11">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.57099999999999995</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="35">

--- a/REGULAR/GSO/OLINO, PRECIOSA.xlsx
+++ b/REGULAR/GSO/OLINO, PRECIOSA.xlsx
@@ -2232,10 +2232,10 @@
   </sheetPr>
   <dimension ref="A2:K613"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1965" topLeftCell="A529" activePane="bottomLeft"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D543" sqref="D543"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1965" topLeftCell="A508" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="L539" sqref="L539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2394,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.958999999999889</v>
+        <v>50.708999999999889</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2404,7 +2404,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>125.5</v>
+        <v>129.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14499,13 +14499,15 @@
         <v>45047</v>
       </c>
       <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
@@ -14517,13 +14519,15 @@
         <v>45078</v>
       </c>
       <c r="B564" s="20"/>
-      <c r="C564" s="13"/>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D564" s="39"/>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
@@ -14535,13 +14539,15 @@
         <v>45108</v>
       </c>
       <c r="B565" s="20"/>
-      <c r="C565" s="13"/>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D565" s="39"/>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
